--- a/pred_ohlcv/54_21/2020-01-16 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ENJ ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-377673.1989629732</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1575.1833370268</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-176134.6822629732</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-106372.0445629732</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-106665.9056629732</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-77725.3565629732</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-88110.6469629732</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-87420.6469629732</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40535.56576297321</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>7857.080137026795</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>198083.2826370268</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>259551.508904866</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>275958.430804866</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>275958.430804866</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>278285.128704866</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>278285.128704866</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>273705.582904866</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>312497.277804866</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>307721.845404866</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>214345.080604866</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>214355.080604866</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>212257.547304866</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>213177.547304866</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>223112.324904866</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>222199.835904866</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>256531.338704866</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>288429.636304866</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>263069.526304866</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>267575.473004866</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>281851.936404866</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>281851.936404866</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>285750.915304866</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>296733.582704866</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>321988.703304866</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>296807.904204866</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>296807.904204866</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>296664.404204866</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>296578.7222048661</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>296367.4777048661</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>297607.7296656796</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>276901.4416656796</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>279956.5303656796</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>279257.5303656796</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>44332.84181398519</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>30228.56691398519</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>30767.56691398519</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>29333.08491398519</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>25332.60291398519</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>48456.04291398519</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>89162.4998139852</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>87961.0669139852</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>84634.7419139852</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>106014.9655139852</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>25781.7444139852</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>25253.7444139852</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>25034.9099139852</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>31705.6773139852</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>16054.6535139852</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>11225.9412139852</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>9775.941213985199</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-12954.9326860148</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-83328.26038601479</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-67053.30138601479</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-59255.93058601479</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-62193.47528601479</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-66660.07348601479</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-296602.7495860148</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>33068.22925641059</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>47766.46585641059</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-76912.89086368894</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-32157.60476368893</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-43043.76436368893</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-38669.49326368894</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-25473.28446368893</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>626653.7666018072</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>625353.0330018072</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>556356.1086018072</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>559521.9179018071</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>542458.6663018072</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>558052.1183018072</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>518658.8650018072</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>512159.3208018072</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>510976.1766018072</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>504518.0099018072</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>503894.9554018072</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>503900.9554018072</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>491900.9554018072</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>44124.51830180723</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>89870.27640180723</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>96924.75330180723</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>35713.37110180724</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ENJ ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-377673.1989629732</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1575.1833370268</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-176134.6822629732</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-106665.9056629732</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-77725.3565629732</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-88110.6469629732</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-87420.6469629732</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40535.56576297321</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>198083.2826370268</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>247904.611704866</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>251419.300704866</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>259551.508904866</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>275958.430804866</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>275958.430804866</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>278285.128704866</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>278285.128704866</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>273705.582904866</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>312497.277804866</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>307721.845404866</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>214345.080604866</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>214355.080604866</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>212257.547304866</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>213177.547304866</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>223112.324904866</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>222199.835904866</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>256531.338704866</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>288429.636304866</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>263069.526304866</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>267575.473004866</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>281851.936404866</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>281851.936404866</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>285750.915304866</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>296733.582704866</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>321988.703304866</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>296807.904204866</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>296807.904204866</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>296664.404204866</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>296578.7222048661</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>296367.4777048661</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>297607.7296656796</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>276901.4416656796</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>279956.5303656796</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>279257.5303656796</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>44332.84181398519</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>30228.56691398519</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>30767.56691398519</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>29333.08491398519</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>25332.60291398519</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>48456.04291398519</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>89162.4998139852</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>87961.0669139852</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>84634.7419139852</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>106014.9655139852</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>25781.7444139852</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>25253.7444139852</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>25034.9099139852</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>31705.6773139852</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>16054.6535139852</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>11225.9412139852</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>9775.941213985199</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-12954.9326860148</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-83328.26038601479</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-67053.30138601479</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-59255.93058601479</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-62193.47528601479</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-66660.07348601479</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-296602.7495860148</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>33068.22925641059</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>47766.46585641059</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-76912.89086368894</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-32157.60476368893</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-43043.76436368893</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-38669.49326368894</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-25473.28446368893</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>517808.0889679688</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>602579.4913679687</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>626653.7666018072</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>625353.0330018072</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>556356.1086018072</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>559521.9179018071</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>542458.6663018072</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>558052.1183018072</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>518658.8650018072</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>512159.3208018072</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>510976.1766018072</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>504518.0099018072</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>503894.9554018072</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>503900.9554018072</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>491900.9554018072</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>44124.51830180723</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>89870.27640180723</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
